--- a/Docs/Statistics.xlsx
+++ b/Docs/Statistics.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Statistics.xlsx
+++ b/Docs/Statistics.xlsx
@@ -24,15 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
     <t>P Count</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Arr size</t>
   </si>
   <si>
-    <t>Arr size</t>
+    <t>Total time</t>
   </si>
 </sst>
 </file>
@@ -351,67 +351,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1">
         <v>100000</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1">
         <v>1000000</v>
       </c>
       <c r="M1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -424,8 +439,11 @@
       <c r="N3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
@@ -438,8 +456,11 @@
       <c r="N4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -452,8 +473,11 @@
       <c r="N5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -466,8 +490,11 @@
       <c r="N6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
@@ -480,8 +507,11 @@
       <c r="N7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -494,8 +524,11 @@
       <c r="N8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
@@ -508,8 +541,11 @@
       <c r="N9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
@@ -522,8 +558,11 @@
       <c r="N10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -536,8 +575,11 @@
       <c r="N11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>16</v>
       </c>
@@ -550,8 +592,11 @@
       <c r="N12">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>32</v>
       </c>
@@ -562,6 +607,9 @@
         <v>32</v>
       </c>
       <c r="N13">
+        <v>32</v>
+      </c>
+      <c r="R13">
         <v>32</v>
       </c>
     </row>

--- a/Docs/Statistics.xlsx
+++ b/Docs/Statistics.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="7">
   <si>
     <t>P Count</t>
   </si>
@@ -33,6 +33,18 @@
   </si>
   <si>
     <t>Total time</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Procs</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -86,6 +98,3703 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13753199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6132299999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2046500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1978000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9361100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0287499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3320600000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-674A-41C8-B862-62A0375C52B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="468976848"/>
+        <c:axId val="459849368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="468976848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459849368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="459849368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468976848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$19:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.2795900000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6801600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4242300000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8916000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9842900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8198799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3398700000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A61-442B-BA21-AF7EC54242A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="462063168"/>
+        <c:axId val="462063496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="462063168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462063496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="462063496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462063168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$19:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.2449000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7330900000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8615700000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1478599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6602000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0550799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.96656E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BCB-4A4E-8283-9848EA1944EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="399878112"/>
+        <c:axId val="468518504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="399878112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468518504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468518504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399878112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$19:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$19:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0597699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8449400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2571000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0455300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2142200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1210600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4481400000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B6E-47A6-9D97-1EB1206A3202}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="542852504"/>
+        <c:axId val="542849552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="542852504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542849552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="542849552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542852504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,10 +4060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +4322,607 @@
         <v>32</v>
       </c>
     </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="N17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.13753199999999999</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>8.2795900000000006E-2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.2449000000000003E-2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>3.0597699999999999E-2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>3.4253699999999998E-2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.0068899999999999E-2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>3.2114200000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>8.6132299999999995E-2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>5.6801600000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2.7330900000000002E-2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>3.8449400000000002E-2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>3.0834799999999999E-2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>3.5126499999999998E-2</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>3.1609100000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>9.2046500000000003E-2</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>3.4242300000000003E-2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>3.8615700000000003E-2</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>3.2571000000000003E-2</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>2.8511499999999999E-2</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>3.0430599999999999E-2</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>2.9393599999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>5.1978000000000003E-2</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>2.8916000000000001E-2</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>4.1478599999999997E-2</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>3.0455300000000001E-2</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>2.9439400000000001E-2</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>2.85814E-2</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>3.3766400000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>3.9361100000000003E-2</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>4.9842900000000002E-2</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>2.6602000000000001E-2</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>3.2142200000000003E-2</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>3.1356099999999998E-2</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>3.01348E-2</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>3.6802599999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>5.0287499999999999E-2</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>3.8198799999999998E-2</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>3.0550799999999999E-2</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>3.1210600000000002E-2</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>3.0255299999999999E-2</v>
+      </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
+      <c r="M24">
+        <v>3.1508799999999997E-2</v>
+      </c>
+      <c r="N24">
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>3.3648699999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>6.3320600000000005E-2</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>3.3398700000000003E-2</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>2.96656E-2</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>3.4481400000000002E-2</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>2.9190000000000001E-2</v>
+      </c>
+      <c r="L25">
+        <v>16</v>
+      </c>
+      <c r="M25">
+        <v>3.4878100000000002E-2</v>
+      </c>
+      <c r="N25">
+        <v>16</v>
+      </c>
+      <c r="O25">
+        <v>3.4537100000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.13753199999999999</v>
+      </c>
+      <c r="D30">
+        <v>8.2795900000000006E-2</v>
+      </c>
+      <c r="E30">
+        <v>5.2449000000000003E-2</v>
+      </c>
+      <c r="F30">
+        <v>3.0597699999999999E-2</v>
+      </c>
+      <c r="G30">
+        <v>3.4253699999999998E-2</v>
+      </c>
+      <c r="H30">
+        <v>3.0068899999999999E-2</v>
+      </c>
+      <c r="I30">
+        <v>3.2114200000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>8.6132299999999995E-2</v>
+      </c>
+      <c r="D31">
+        <v>5.6801600000000001E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.7330900000000002E-2</v>
+      </c>
+      <c r="F31">
+        <v>3.8449400000000002E-2</v>
+      </c>
+      <c r="G31">
+        <v>3.0834799999999999E-2</v>
+      </c>
+      <c r="H31">
+        <v>3.5126499999999998E-2</v>
+      </c>
+      <c r="I31">
+        <v>3.1609100000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>9.2046500000000003E-2</v>
+      </c>
+      <c r="D32">
+        <v>3.4242300000000003E-2</v>
+      </c>
+      <c r="E32">
+        <v>3.8615700000000003E-2</v>
+      </c>
+      <c r="F32">
+        <v>3.2571000000000003E-2</v>
+      </c>
+      <c r="G32">
+        <v>2.8511499999999999E-2</v>
+      </c>
+      <c r="H32">
+        <v>3.0430599999999999E-2</v>
+      </c>
+      <c r="I32">
+        <v>2.9393599999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>5.1978000000000003E-2</v>
+      </c>
+      <c r="D33">
+        <v>2.8916000000000001E-2</v>
+      </c>
+      <c r="E33">
+        <v>4.1478599999999997E-2</v>
+      </c>
+      <c r="F33">
+        <v>3.0455300000000001E-2</v>
+      </c>
+      <c r="G33">
+        <v>2.9439400000000001E-2</v>
+      </c>
+      <c r="H33">
+        <v>2.85814E-2</v>
+      </c>
+      <c r="I33">
+        <v>3.3766400000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>3.9361100000000003E-2</v>
+      </c>
+      <c r="D34">
+        <v>4.9842900000000002E-2</v>
+      </c>
+      <c r="E34">
+        <v>2.6602000000000001E-2</v>
+      </c>
+      <c r="F34">
+        <v>3.2142200000000003E-2</v>
+      </c>
+      <c r="G34">
+        <v>3.1356099999999998E-2</v>
+      </c>
+      <c r="H34">
+        <v>3.01348E-2</v>
+      </c>
+      <c r="I34">
+        <v>3.6802599999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>5.0287499999999999E-2</v>
+      </c>
+      <c r="D35">
+        <v>3.8198799999999998E-2</v>
+      </c>
+      <c r="E35">
+        <v>3.0550799999999999E-2</v>
+      </c>
+      <c r="F35">
+        <v>3.1210600000000002E-2</v>
+      </c>
+      <c r="G35">
+        <v>3.0255299999999999E-2</v>
+      </c>
+      <c r="H35">
+        <v>3.1508799999999997E-2</v>
+      </c>
+      <c r="I35">
+        <v>3.3648699999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>6.3320600000000005E-2</v>
+      </c>
+      <c r="D36">
+        <v>3.3398700000000003E-2</v>
+      </c>
+      <c r="E36">
+        <v>2.96656E-2</v>
+      </c>
+      <c r="F36">
+        <v>3.4481400000000002E-2</v>
+      </c>
+      <c r="G36">
+        <v>2.9190000000000001E-2</v>
+      </c>
+      <c r="H36">
+        <v>3.4878100000000002E-2</v>
+      </c>
+      <c r="I36">
+        <v>3.4537100000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>